--- a/biology/Médecine/Hôpital_Lozère/Hôpital_Lozère.xlsx
+++ b/biology/Médecine/Hôpital_Lozère/Hôpital_Lozère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Loz%C3%A8re</t>
+          <t>Hôpital_Lozère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hôpital Lozère (anciennement Centre hospitalier de Mende) est un hôpital général, situé dans le département de la Lozère. 
 Il est constitué de deux principaux sites : le site Vallée du Lot, à Mende et le site Gévaudan, à Marvejols.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Loz%C3%A8re</t>
+          <t>Hôpital_Lozère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital est inauguré le 15 avril 1970, sous le nom de Centre hospitalier de Mende[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital est inauguré le 15 avril 1970, sous le nom de Centre hospitalier de Mende.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Loz%C3%A8re</t>
+          <t>Hôpital_Lozère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il compte en 2018 352 lits et assure les soins dans les spécialités de médecine, chirurgie, gynécologie-obstétrique, urgences, pédiatrie, néonatologie, oncologie et réanimation. Il dispose de 7 salles d'interventions chirurgicales, et d'un plateau technique performant en imagerie médicale, et d'un laboratoire d'analyse de biologie médicale.
 L'hôpital Lozère est également le siège du SAMU 48, et dispose d'un SMUR avec un héliport, permettant de recevoir les urgences par voie aérienne et le transfert de patients vers le CHU de Montpellier.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Loz%C3%A8re</t>
+          <t>Hôpital_Lozère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Activité[1]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">[Passage à actualiser]
 Budget en 2010 : 38 millions d'euros
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Loz%C3%A8re</t>
+          <t>Hôpital_Lozère</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Formations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital est rattaché à un Institut universitaire de formation en soins infirmiers.[Depuis quand ?]
 </t>
